--- a/CMS/planning/AZC_test_dates.xlsx
+++ b/CMS/planning/AZC_test_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongley\Documents\CMS_Testing\CMS\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FBF9D-7E7A-45ED-8081-4DDFA70BA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0BC76-D437-4556-B254-ED98C4F09B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{3E8D2AF5-7799-4157-9EEB-6A2F43C1688F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3E8D2AF5-7799-4157-9EEB-6A2F43C1688F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,9 +513,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F67024C-077B-4046-88D1-D6186AA3CBDF}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
-  <autoFilter ref="A1:D35" xr:uid="{3F67024C-077B-4046-88D1-D6186AA3CBDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
-    <sortCondition ref="A1:A35"/>
+  <autoFilter ref="A1:D35" xr:uid="{3F67024C-077B-4046-88D1-D6186AA3CBDF}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition ref="B1:B35"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7A7AB00C-B91C-44FA-BADA-5832D0BC3B9D}" name="Asset ID"/>
@@ -827,7 +833,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -852,10 +858,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1">
-        <v>45401</v>
+        <v>45397</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -866,10 +872,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1">
-        <v>45404</v>
+        <v>45397</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -880,10 +886,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1">
-        <v>45411</v>
+        <v>45397</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -892,7 +898,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -908,7 +914,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>45397</v>
@@ -922,10 +928,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1">
         <v>45398</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1">
         <v>45398</v>
@@ -964,10 +970,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>45600</v>
+        <v>45399</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -978,10 +984,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -992,10 +998,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1006,10 +1012,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1">
-        <v>45404</v>
+        <v>45400</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1034,10 +1040,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1">
-        <v>45405</v>
+        <v>45400</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>45401</v>
@@ -1062,7 +1068,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>45401</v>
@@ -1076,10 +1082,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>45600</v>
+        <v>45401</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1090,10 +1096,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1104,7 +1110,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>45404</v>
@@ -1118,10 +1124,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B21" s="1">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1146,10 +1152,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1">
-        <v>45399</v>
+        <v>45404</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1160,10 +1166,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1">
-        <v>45399</v>
+        <v>45405</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1174,10 +1180,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B25" s="1">
-        <v>45399</v>
+        <v>45405</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1188,10 +1194,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1202,10 +1208,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1">
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1216,10 +1222,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1">
-        <v>45600</v>
+        <v>45406</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1230,10 +1236,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
-        <v>45405</v>
+        <v>45411</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1244,10 +1250,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1258,10 +1264,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1272,10 +1278,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1">
-        <v>45406</v>
+        <v>45600</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1286,10 +1292,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>45411</v>
+        <v>45600</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1300,10 +1306,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1">
-        <v>45411</v>
+        <v>45600</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1312,7 +1318,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>132</v>
       </c>
